--- a/Code/Results/Cases/Case_0_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_110/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3645174145751469</v>
+        <v>0.1958502231010186</v>
       </c>
       <c r="D2">
-        <v>0.5788626599057238</v>
+        <v>0.1172342349564133</v>
       </c>
       <c r="E2">
-        <v>0.0221280728037101</v>
+        <v>0.06542532866897588</v>
       </c>
       <c r="F2">
-        <v>18.74657109982735</v>
+        <v>8.797736409582797</v>
       </c>
       <c r="G2">
-        <v>0.000575008462915147</v>
+        <v>0.002621317206607812</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.78897146611294</v>
+        <v>5.987256124704885</v>
       </c>
       <c r="J2">
-        <v>0.4850405945517196</v>
+        <v>0.2975686261519286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.663121664606024</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2935744038253461</v>
+        <v>0.1894650465831802</v>
       </c>
       <c r="D3">
-        <v>0.4585427534836839</v>
+        <v>0.1015593299189135</v>
       </c>
       <c r="E3">
-        <v>0.02128369021325227</v>
+        <v>0.06589401896876534</v>
       </c>
       <c r="F3">
-        <v>15.09241075569707</v>
+        <v>8.431914133496718</v>
       </c>
       <c r="G3">
-        <v>0.0006253492272725941</v>
+        <v>0.002639233995562918</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.07544190007718</v>
+        <v>5.707567514089959</v>
       </c>
       <c r="J3">
-        <v>0.3940305692081978</v>
+        <v>0.289671771849811</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2576827267465376</v>
+        <v>0.1857308733923873</v>
       </c>
       <c r="D4">
-        <v>0.3969260940050106</v>
+        <v>0.09201031273020988</v>
       </c>
       <c r="E4">
-        <v>0.0209310618379428</v>
+        <v>0.06621019150032392</v>
       </c>
       <c r="F4">
-        <v>13.22628080958594</v>
+        <v>8.215872885662009</v>
       </c>
       <c r="G4">
-        <v>0.0006531301126770916</v>
+        <v>0.002650734123936161</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.688638244557438</v>
+        <v>5.541798128587914</v>
       </c>
       <c r="J4">
-        <v>0.3477529338915417</v>
+        <v>0.2850930252612613</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2442629098716083</v>
+        <v>0.1842546618158849</v>
       </c>
       <c r="D5">
-        <v>0.3737214016552173</v>
+        <v>0.08813564783228856</v>
       </c>
       <c r="E5">
-        <v>0.02081615976432705</v>
+        <v>0.06634616491355505</v>
       </c>
       <c r="F5">
-        <v>12.52545768250997</v>
+        <v>8.129920768793397</v>
       </c>
       <c r="G5">
-        <v>0.0006640124099885483</v>
+        <v>0.002655547100376327</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.167582561802476</v>
+        <v>5.475692672114945</v>
       </c>
       <c r="J5">
-        <v>0.3304170350926654</v>
+        <v>0.2832932862343966</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2420939725046338</v>
+        <v>0.1840122468715606</v>
       </c>
       <c r="D6">
-        <v>0.3699613863122408</v>
+        <v>0.08749320094040058</v>
       </c>
       <c r="E6">
-        <v>0.02079857606869684</v>
+        <v>0.06636917360730088</v>
       </c>
       <c r="F6">
-        <v>12.41202803224598</v>
+        <v>8.115772511590137</v>
       </c>
       <c r="G6">
-        <v>0.0006657994263435389</v>
+        <v>0.002656353967446463</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.08323436481453</v>
+        <v>5.464801821958702</v>
       </c>
       <c r="J6">
-        <v>0.3276136796731492</v>
+        <v>0.2829983857940022</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110552</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2574975013551182</v>
+        <v>0.1857107822456214</v>
       </c>
       <c r="D7">
-        <v>0.3966064850025077</v>
+        <v>0.09195799330225896</v>
       </c>
       <c r="E7">
-        <v>0.02092940726541936</v>
+        <v>0.06621199642550035</v>
       </c>
       <c r="F7">
-        <v>13.2166193733708</v>
+        <v>8.214705347696054</v>
       </c>
       <c r="G7">
-        <v>0.0006532783398963694</v>
+        <v>0.002650798519678107</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.681456042901317</v>
+        <v>5.540900815911414</v>
       </c>
       <c r="J7">
-        <v>0.3475137696536592</v>
+        <v>0.2850684878173695</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.18438911221989</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3378394619939797</v>
+        <v>0.1936090963418451</v>
       </c>
       <c r="D8">
-        <v>0.5338098751149403</v>
+        <v>0.1118124364932385</v>
       </c>
       <c r="E8">
-        <v>0.02179143460906463</v>
+        <v>0.06558103358789324</v>
       </c>
       <c r="F8">
-        <v>17.37777125376783</v>
+        <v>8.669778124637389</v>
       </c>
       <c r="G8">
-        <v>0.0005933160461896049</v>
+        <v>0.002627391967533556</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.77277773885143</v>
+        <v>5.88955041679651</v>
       </c>
       <c r="J8">
-        <v>0.4508969314011608</v>
+        <v>0.2947886871178582</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3378394619939797</v>
+        <v>0.2106414648431212</v>
       </c>
       <c r="D9">
-        <v>0.5338098751149403</v>
+        <v>0.1514564176480349</v>
       </c>
       <c r="E9">
-        <v>0.02179143460906463</v>
+        <v>0.06456952801849525</v>
       </c>
       <c r="F9">
-        <v>17.37777125376783</v>
+        <v>9.63354846943281</v>
       </c>
       <c r="G9">
-        <v>0.0005933160461896049</v>
+        <v>0.002585402634400355</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.77277773885143</v>
+        <v>6.623023479938013</v>
       </c>
       <c r="J9">
-        <v>0.4508969314011608</v>
+        <v>0.3160753154067066</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7.348453399592699</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3378394619939797</v>
+        <v>0.2241923068920357</v>
       </c>
       <c r="D10">
-        <v>0.5338098751149403</v>
+        <v>0.1811780494233233</v>
       </c>
       <c r="E10">
-        <v>0.02179143460906463</v>
+        <v>0.06396486864055362</v>
       </c>
       <c r="F10">
-        <v>17.37777125376783</v>
+        <v>10.39005241784611</v>
       </c>
       <c r="G10">
-        <v>0.0005933160461896049</v>
+        <v>0.0025568659430434</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.77277773885143</v>
+        <v>7.195896567551074</v>
       </c>
       <c r="J10">
-        <v>0.4508969314011608</v>
+        <v>0.333194154190366</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>7.348453399592699</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3378394619939797</v>
+        <v>0.2306045628622257</v>
       </c>
       <c r="D11">
-        <v>0.5338098751149403</v>
+        <v>0.1948661997597583</v>
       </c>
       <c r="E11">
-        <v>0.02179143460906463</v>
+        <v>0.0637200846189323</v>
       </c>
       <c r="F11">
-        <v>17.37777125376783</v>
+        <v>10.74586501054262</v>
       </c>
       <c r="G11">
-        <v>0.0005933160461896049</v>
+        <v>0.002544370028750118</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.77277773885143</v>
+        <v>7.464742341545332</v>
       </c>
       <c r="J11">
-        <v>0.4508969314011608</v>
+        <v>0.3413319376062276</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7.348453399592699</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3378394619939797</v>
+        <v>0.2330703087452832</v>
       </c>
       <c r="D12">
-        <v>0.5338098751149403</v>
+        <v>0.2000769047677977</v>
       </c>
       <c r="E12">
-        <v>0.02179143460906463</v>
+        <v>0.06363176626004829</v>
       </c>
       <c r="F12">
-        <v>17.37777125376783</v>
+        <v>10.88237983455616</v>
       </c>
       <c r="G12">
-        <v>0.0005933160461896049</v>
+        <v>0.002539706637760836</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.77277773885143</v>
+        <v>7.567806037219441</v>
       </c>
       <c r="J12">
-        <v>0.4508969314011608</v>
+        <v>0.344466369326085</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7.348453399592699</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3378394619939797</v>
+        <v>0.2325375639518938</v>
       </c>
       <c r="D13">
-        <v>0.5338098751149403</v>
+        <v>0.1989534193569966</v>
       </c>
       <c r="E13">
-        <v>0.02179143460906463</v>
+        <v>0.06365059219857017</v>
       </c>
       <c r="F13">
-        <v>17.37777125376783</v>
+        <v>10.85289831267175</v>
       </c>
       <c r="G13">
-        <v>0.0005933160461896049</v>
+        <v>0.00254070795532579</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.77277773885143</v>
+        <v>7.545552298190216</v>
       </c>
       <c r="J13">
-        <v>0.4508969314011608</v>
+        <v>0.3437889232332338</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>7.348453399592699</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3378394619939797</v>
+        <v>0.2308066570763003</v>
       </c>
       <c r="D14">
-        <v>0.5338098751149403</v>
+        <v>0.1952943215653136</v>
       </c>
       <c r="E14">
-        <v>0.02179143460906463</v>
+        <v>0.06371273077781581</v>
       </c>
       <c r="F14">
-        <v>17.37777125376783</v>
+        <v>10.75705998972887</v>
       </c>
       <c r="G14">
-        <v>0.0005933160461896049</v>
+        <v>0.00254398500270566</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.77277773885143</v>
+        <v>7.473195820422347</v>
       </c>
       <c r="J14">
-        <v>0.4508969314011608</v>
+        <v>0.3415887358662673</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>7.348453399592699</v>
+        <v>4.371107314139238</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3378394619939797</v>
+        <v>0.2297513772034563</v>
       </c>
       <c r="D15">
-        <v>0.5338098751149403</v>
+        <v>0.1930566714435145</v>
       </c>
       <c r="E15">
-        <v>0.02179143460906463</v>
+        <v>0.06375136303320694</v>
       </c>
       <c r="F15">
-        <v>17.37777125376783</v>
+        <v>10.69859056311242</v>
       </c>
       <c r="G15">
-        <v>0.0005933160461896049</v>
+        <v>0.00254600117601878</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.77277773885143</v>
+        <v>7.429041384337552</v>
       </c>
       <c r="J15">
-        <v>0.4508969314011608</v>
+        <v>0.3402480126896279</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>7.348453399592699</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3378394619939797</v>
+        <v>0.2237784006953518</v>
       </c>
       <c r="D16">
-        <v>0.5338098751149403</v>
+        <v>0.1802871389869551</v>
       </c>
       <c r="E16">
-        <v>0.02179143460906463</v>
+        <v>0.06398147696506307</v>
       </c>
       <c r="F16">
-        <v>17.37777125376783</v>
+        <v>10.36704236982945</v>
       </c>
       <c r="G16">
-        <v>0.0005933160461896049</v>
+        <v>0.002557692242617177</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.77277773885143</v>
+        <v>7.178498824053293</v>
       </c>
       <c r="J16">
-        <v>0.4508969314011608</v>
+        <v>0.3326695870509297</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7.348453399592699</v>
+        <v>4.089429168003846</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3378394619939797</v>
+        <v>0.2201789975729866</v>
       </c>
       <c r="D17">
-        <v>0.5338098751149403</v>
+        <v>0.1724985986842285</v>
       </c>
       <c r="E17">
-        <v>0.02179143460906463</v>
+        <v>0.06413041443747147</v>
       </c>
       <c r="F17">
-        <v>17.37777125376783</v>
+        <v>10.1667062343887</v>
       </c>
       <c r="G17">
-        <v>0.0005933160461896049</v>
+        <v>0.002564987800613109</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.77277773885143</v>
+        <v>7.026960502195379</v>
       </c>
       <c r="J17">
-        <v>0.4508969314011608</v>
+        <v>0.3281118998073822</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7.348453399592699</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3378394619939797</v>
+        <v>0.218131929739144</v>
       </c>
       <c r="D18">
-        <v>0.5338098751149403</v>
+        <v>0.1680344134783525</v>
       </c>
       <c r="E18">
-        <v>0.02179143460906463</v>
+        <v>0.06421892784428351</v>
       </c>
       <c r="F18">
-        <v>17.37777125376783</v>
+        <v>10.05257096379484</v>
       </c>
       <c r="G18">
-        <v>0.0005933160461896049</v>
+        <v>0.002569229796185713</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.77277773885143</v>
+        <v>6.940570972344062</v>
       </c>
       <c r="J18">
-        <v>0.4508969314011608</v>
+        <v>0.3255232593855055</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>7.348453399592699</v>
+        <v>3.857331695637072</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3378394619939797</v>
+        <v>0.217442758104113</v>
       </c>
       <c r="D19">
-        <v>0.5338098751149403</v>
+        <v>0.1665254978751705</v>
       </c>
       <c r="E19">
-        <v>0.02179143460906463</v>
+        <v>0.06424938556293291</v>
       </c>
       <c r="F19">
-        <v>17.37777125376783</v>
+        <v>10.01411152534195</v>
       </c>
       <c r="G19">
-        <v>0.0005933160461896049</v>
+        <v>0.002570673964643469</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.77277773885143</v>
+        <v>6.911451295156326</v>
       </c>
       <c r="J19">
-        <v>0.4508969314011608</v>
+        <v>0.3246523547284568</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7.348453399592699</v>
+        <v>3.828614786363971</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3378394619939797</v>
+        <v>0.2205597441278826</v>
       </c>
       <c r="D20">
-        <v>0.5338098751149403</v>
+        <v>0.1733260673151165</v>
       </c>
       <c r="E20">
-        <v>0.02179143460906463</v>
+        <v>0.06411426482689109</v>
       </c>
       <c r="F20">
-        <v>17.37777125376783</v>
+        <v>10.18791857106834</v>
       </c>
       <c r="G20">
-        <v>0.0005933160461896049</v>
+        <v>0.002564206446589612</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.77277773885143</v>
+        <v>7.043011676941944</v>
       </c>
       <c r="J20">
-        <v>0.4508969314011608</v>
+        <v>0.3285936592506431</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7.348453399592699</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3378394619939797</v>
+        <v>0.2313140311191262</v>
       </c>
       <c r="D21">
-        <v>0.5338098751149403</v>
+        <v>0.1963683200737592</v>
       </c>
       <c r="E21">
-        <v>0.02179143460906463</v>
+        <v>0.0636943602197011</v>
       </c>
       <c r="F21">
-        <v>17.37777125376783</v>
+        <v>10.78516101602702</v>
       </c>
       <c r="G21">
-        <v>0.0005933160461896049</v>
+        <v>0.002543020604626201</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.77277773885143</v>
+        <v>7.494413943779364</v>
       </c>
       <c r="J21">
-        <v>0.4508969314011608</v>
+        <v>0.3422335302183086</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7.348453399592699</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3378394619939797</v>
+        <v>0.2385624967866136</v>
       </c>
       <c r="D22">
-        <v>0.5338098751149403</v>
+        <v>0.211588494353407</v>
       </c>
       <c r="E22">
-        <v>0.02179143460906463</v>
+        <v>0.06344544705117094</v>
       </c>
       <c r="F22">
-        <v>17.37777125376783</v>
+        <v>11.18589639511981</v>
       </c>
       <c r="G22">
-        <v>0.0005933160461896049</v>
+        <v>0.002529573310048424</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.77277773885143</v>
+        <v>7.796798367749318</v>
       </c>
       <c r="J22">
-        <v>0.4508969314011608</v>
+        <v>0.3514571454263091</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7.348453399592699</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3378394619939797</v>
+        <v>0.2346730706499045</v>
       </c>
       <c r="D23">
-        <v>0.5338098751149403</v>
+        <v>0.2034493933969372</v>
       </c>
       <c r="E23">
-        <v>0.02179143460906463</v>
+        <v>0.06357595385189718</v>
       </c>
       <c r="F23">
-        <v>17.37777125376783</v>
+        <v>10.9710308850299</v>
       </c>
       <c r="G23">
-        <v>0.0005933160461896049</v>
+        <v>0.002536714323400574</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.77277773885143</v>
+        <v>7.634711082091201</v>
       </c>
       <c r="J23">
-        <v>0.4508969314011608</v>
+        <v>0.3465051926165188</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7.348453399592699</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3378394619939797</v>
+        <v>0.2203875393657597</v>
       </c>
       <c r="D24">
-        <v>0.5338098751149403</v>
+        <v>0.1729519267805983</v>
       </c>
       <c r="E24">
-        <v>0.02179143460906463</v>
+        <v>0.06412155707434586</v>
       </c>
       <c r="F24">
-        <v>17.37777125376783</v>
+        <v>10.17832523959248</v>
       </c>
       <c r="G24">
-        <v>0.0005933160461896049</v>
+        <v>0.002564559548160407</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.77277773885143</v>
+        <v>7.035752666648989</v>
       </c>
       <c r="J24">
-        <v>0.4508969314011608</v>
+        <v>0.3283757574548503</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>7.348453399592699</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3378394619939797</v>
+        <v>0.2058588626372284</v>
       </c>
       <c r="D25">
-        <v>0.5338098751149403</v>
+        <v>0.1406393807135657</v>
       </c>
       <c r="E25">
-        <v>0.02179143460906463</v>
+        <v>0.06481891287796948</v>
       </c>
       <c r="F25">
-        <v>17.37777125376783</v>
+        <v>9.364689707039133</v>
       </c>
       <c r="G25">
-        <v>0.0005933160461896049</v>
+        <v>0.0025963504182308</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.77277773885143</v>
+        <v>6.418905353816967</v>
       </c>
       <c r="J25">
-        <v>0.4508969314011608</v>
+        <v>0.3100661645182754</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>7.348453399592699</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_110/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1958502231010186</v>
+        <v>0.36451741457455</v>
       </c>
       <c r="D2">
-        <v>0.1172342349564133</v>
+        <v>0.5788626599065196</v>
       </c>
       <c r="E2">
-        <v>0.06542532866897588</v>
+        <v>0.0221280728037625</v>
       </c>
       <c r="F2">
-        <v>8.797736409582797</v>
+        <v>18.74657109982746</v>
       </c>
       <c r="G2">
-        <v>0.002621317206607812</v>
+        <v>0.000575008462907054</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.987256124704885</v>
+        <v>13.78897146611308</v>
       </c>
       <c r="J2">
-        <v>0.2975686261519286</v>
+        <v>0.485040594551819</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.663121664606138</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1894650465831802</v>
+        <v>0.2935744038253461</v>
       </c>
       <c r="D3">
-        <v>0.1015593299189135</v>
+        <v>0.4585427534840676</v>
       </c>
       <c r="E3">
-        <v>0.06589401896876534</v>
+        <v>0.02128369021321852</v>
       </c>
       <c r="F3">
-        <v>8.431914133496718</v>
+        <v>15.09241075569707</v>
       </c>
       <c r="G3">
-        <v>0.002639233995562918</v>
+        <v>0.0006253492274686249</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.707567514089959</v>
+        <v>11.07544190007715</v>
       </c>
       <c r="J3">
-        <v>0.289671771849811</v>
+        <v>0.3940305692082688</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1857308733923873</v>
+        <v>0.2576827267456849</v>
       </c>
       <c r="D4">
-        <v>0.09201031273020988</v>
+        <v>0.3969260940047832</v>
       </c>
       <c r="E4">
-        <v>0.06621019150032392</v>
+        <v>0.02093106183786908</v>
       </c>
       <c r="F4">
-        <v>8.215872885662009</v>
+        <v>13.226280809586</v>
       </c>
       <c r="G4">
-        <v>0.002650734123936161</v>
+        <v>0.0006531301126725127</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.541798128587914</v>
+        <v>9.688638244557467</v>
       </c>
       <c r="J4">
-        <v>0.2850930252612613</v>
+        <v>0.3477529338916128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1842546618158849</v>
+        <v>0.2442629098706135</v>
       </c>
       <c r="D5">
-        <v>0.08813564783228856</v>
+        <v>0.3737214016551746</v>
       </c>
       <c r="E5">
-        <v>0.06634616491355505</v>
+        <v>0.02081615976439632</v>
       </c>
       <c r="F5">
-        <v>8.129920768793397</v>
+        <v>12.52545768250997</v>
       </c>
       <c r="G5">
-        <v>0.002655547100376327</v>
+        <v>0.0006640124099835007</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.475692672114945</v>
+        <v>9.167582561802533</v>
       </c>
       <c r="J5">
-        <v>0.2832932862343966</v>
+        <v>0.3304170350929638</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1840122468715606</v>
+        <v>0.2420939725041507</v>
       </c>
       <c r="D6">
-        <v>0.08749320094040058</v>
+        <v>0.369961386312653</v>
       </c>
       <c r="E6">
-        <v>0.06636917360730088</v>
+        <v>0.02079857606864532</v>
       </c>
       <c r="F6">
-        <v>8.115772511590137</v>
+        <v>12.4120280322461</v>
       </c>
       <c r="G6">
-        <v>0.002656353967446463</v>
+        <v>0.0006657994265604031</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.464801821958702</v>
+        <v>9.083234364814615</v>
       </c>
       <c r="J6">
-        <v>0.2829983857940022</v>
+        <v>0.3276136796731492</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110665</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1857107822456214</v>
+        <v>0.2574975013554734</v>
       </c>
       <c r="D7">
-        <v>0.09195799330225896</v>
+        <v>0.3966064850024225</v>
       </c>
       <c r="E7">
-        <v>0.06621199642550035</v>
+        <v>0.02092940726543357</v>
       </c>
       <c r="F7">
-        <v>8.214705347696054</v>
+        <v>13.21661937337092</v>
       </c>
       <c r="G7">
-        <v>0.002650798519678107</v>
+        <v>0.0006532783397882746</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.540900815911414</v>
+        <v>9.681456042901431</v>
       </c>
       <c r="J7">
-        <v>0.2850684878173695</v>
+        <v>0.347513769653915</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1936090963418451</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D8">
-        <v>0.1118124364932385</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E8">
-        <v>0.06558103358789324</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F8">
-        <v>8.669778124637389</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G8">
-        <v>0.002627391967533556</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.88955041679651</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J8">
-        <v>0.2947886871178582</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2106414648431212</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D9">
-        <v>0.1514564176480349</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E9">
-        <v>0.06456952801849525</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F9">
-        <v>9.63354846943281</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G9">
-        <v>0.002585402634400355</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.623023479938013</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J9">
-        <v>0.3160753154067066</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2241923068920357</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D10">
-        <v>0.1811780494233233</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E10">
-        <v>0.06396486864055362</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F10">
-        <v>10.39005241784611</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G10">
-        <v>0.0025568659430434</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.195896567551074</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J10">
-        <v>0.333194154190366</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2306045628622257</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D11">
-        <v>0.1948661997597583</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E11">
-        <v>0.0637200846189323</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F11">
-        <v>10.74586501054262</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G11">
-        <v>0.002544370028750118</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.464742341545332</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J11">
-        <v>0.3413319376062276</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2330703087452832</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D12">
-        <v>0.2000769047677977</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E12">
-        <v>0.06363176626004829</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F12">
-        <v>10.88237983455616</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G12">
-        <v>0.002539706637760836</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.567806037219441</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J12">
-        <v>0.344466369326085</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2325375639518938</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D13">
-        <v>0.1989534193569966</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E13">
-        <v>0.06365059219857017</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F13">
-        <v>10.85289831267175</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G13">
-        <v>0.00254070795532579</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.545552298190216</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J13">
-        <v>0.3437889232332338</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2308066570763003</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D14">
-        <v>0.1952943215653136</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E14">
-        <v>0.06371273077781581</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F14">
-        <v>10.75705998972887</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G14">
-        <v>0.00254398500270566</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.473195820422347</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J14">
-        <v>0.3415887358662673</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139238</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2297513772034563</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D15">
-        <v>0.1930566714435145</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E15">
-        <v>0.06375136303320694</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F15">
-        <v>10.69859056311242</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G15">
-        <v>0.00254600117601878</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.429041384337552</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J15">
-        <v>0.3402480126896279</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2237784006953518</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D16">
-        <v>0.1802871389869551</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E16">
-        <v>0.06398147696506307</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F16">
-        <v>10.36704236982945</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G16">
-        <v>0.002557692242617177</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.178498824053293</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J16">
-        <v>0.3326695870509297</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003846</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2201789975729866</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D17">
-        <v>0.1724985986842285</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E17">
-        <v>0.06413041443747147</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F17">
-        <v>10.1667062343887</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G17">
-        <v>0.002564987800613109</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.026960502195379</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J17">
-        <v>0.3281118998073822</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.218131929739144</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D18">
-        <v>0.1680344134783525</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E18">
-        <v>0.06421892784428351</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F18">
-        <v>10.05257096379484</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G18">
-        <v>0.002569229796185713</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.940570972344062</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J18">
-        <v>0.3255232593855055</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637072</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.217442758104113</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D19">
-        <v>0.1665254978751705</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E19">
-        <v>0.06424938556293291</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F19">
-        <v>10.01411152534195</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G19">
-        <v>0.002570673964643469</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.911451295156326</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J19">
-        <v>0.3246523547284568</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786363971</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2205597441278826</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D20">
-        <v>0.1733260673151165</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E20">
-        <v>0.06411426482689109</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F20">
-        <v>10.18791857106834</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G20">
-        <v>0.002564206446589612</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.043011676941944</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J20">
-        <v>0.3285936592506431</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2313140311191262</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D21">
-        <v>0.1963683200737592</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E21">
-        <v>0.0636943602197011</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F21">
-        <v>10.78516101602702</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G21">
-        <v>0.002543020604626201</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.494413943779364</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J21">
-        <v>0.3422335302183086</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2385624967866136</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D22">
-        <v>0.211588494353407</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E22">
-        <v>0.06344544705117094</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F22">
-        <v>11.18589639511981</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G22">
-        <v>0.002529573310048424</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.796798367749318</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J22">
-        <v>0.3514571454263091</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2346730706499045</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D23">
-        <v>0.2034493933969372</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E23">
-        <v>0.06357595385189718</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F23">
-        <v>10.9710308850299</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G23">
-        <v>0.002536714323400574</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.634711082091201</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J23">
-        <v>0.3465051926165188</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2203875393657597</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D24">
-        <v>0.1729519267805983</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E24">
-        <v>0.06412155707434586</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F24">
-        <v>10.17832523959248</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G24">
-        <v>0.002564559548160407</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.035752666648989</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J24">
-        <v>0.3283757574548503</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2058588626372284</v>
+        <v>0.3378394619945766</v>
       </c>
       <c r="D25">
-        <v>0.1406393807135657</v>
+        <v>0.5338098751153382</v>
       </c>
       <c r="E25">
-        <v>0.06481891287796948</v>
+        <v>0.02179143460905575</v>
       </c>
       <c r="F25">
-        <v>9.364689707039133</v>
+        <v>17.37777125376772</v>
       </c>
       <c r="G25">
-        <v>0.0025963504182308</v>
+        <v>0.000593316046202181</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.418905353816967</v>
+        <v>12.77277773885129</v>
       </c>
       <c r="J25">
-        <v>0.3100661645182754</v>
+        <v>0.4508969314010614</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O25">
         <v>0</v>
